--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1517636.228099865</v>
+        <v>1515430.134693427</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604729</v>
+        <v>7094780.682604727</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>259.2917593480715</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0301000117425</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776876</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2438419075651</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>219.8395107801471</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154867</v>
+        <v>65.9526390315487</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015536</v>
+        <v>57.88099638015541</v>
       </c>
       <c r="S3" t="n">
         <v>159.035360425222</v>
@@ -792,10 +792,10 @@
         <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
-        <v>69.68308100927044</v>
+        <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>106.4576710991811</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>117.6800649483524</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>83.10005193340747</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.2831165792401</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255622</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>306.6531044536617</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>32.97544786985859</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1023,7 +1023,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>48.91401559658166</v>
+        <v>41.03250833503017</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>326.2396125556947</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>270.7773459850746</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492418</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>153.9079307349211</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>92.604217831989</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>37.19947798743183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>219.6327091950329</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.4425172951278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>59.4223484152687</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.5808755818443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>89.2022723599959</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>208.3753876829428</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>69.81472657146806</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>154.1877788945072</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,16 +2770,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>21.86478957956401</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>76.93972860841087</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>176.9892567650137</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>88.01915641505319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880098</v>
+        <v>6.081513486880127</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3427,22 @@
         <v>131.751404812582</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F37" t="n">
         <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
-        <v>80.9032785614932</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
         <v>109.2595986282749</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379224</v>
+        <v>60.85700412379226</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400149</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S37" t="n">
-        <v>154.273609045396</v>
+        <v>70.80213164420707</v>
       </c>
       <c r="T37" t="n">
         <v>184.0535329901234</v>
@@ -3487,7 +3487,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029913</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>183.089237066049</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880112</v>
+        <v>6.08151348688012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535743</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C40" t="n">
         <v>131.751404812582</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.43673638400148</v>
       </c>
       <c r="S40" t="n">
-        <v>154.273609045396</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U40" t="n">
         <v>250.716421919567</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W40" t="n">
-        <v>30.77860193036721</v>
+        <v>131.6154745917617</v>
       </c>
       <c r="X40" t="n">
         <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
     <row r="41">
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550212997</v>
+        <v>73.69234550212998</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535743</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728565</v>
       </c>
       <c r="V41" t="n">
         <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313676</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924232</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D43" t="n">
         <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F43" t="n">
         <v>109.9256317368854</v>
@@ -3916,7 +3916,7 @@
         <v>109.2595986282749</v>
       </c>
       <c r="I43" t="n">
-        <v>29.86123879271801</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>53.43673638400148</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901234</v>
+        <v>125.4984296551319</v>
       </c>
       <c r="U43" t="n">
         <v>250.716421919567</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X43" t="n">
         <v>190.2142391029913</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.08151348688007</v>
+        <v>6.081513486880098</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212995</v>
+        <v>73.69234550212997</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U44" t="n">
         <v>215.4997556728561</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>144.3365638958914</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D46" t="n">
-        <v>81.11137677745535</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
         <v>110.9385463605233</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729823</v>
+        <v>26.96127822087031</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282749</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379221</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>700.2484587666656</v>
+        <v>842.3779947787147</v>
       </c>
       <c r="C2" t="n">
-        <v>331.2859418262539</v>
+        <v>473.4154778383029</v>
       </c>
       <c r="D2" t="n">
-        <v>69.37507379789891</v>
+        <v>473.4154778383029</v>
       </c>
       <c r="E2" t="n">
-        <v>69.37507379789891</v>
+        <v>473.4154778383029</v>
       </c>
       <c r="F2" t="n">
-        <v>62.42957304869544</v>
+        <v>466.4699770890995</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501615</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501615</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501615</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244776</v>
+        <v>143.3613405244774</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293484</v>
+        <v>406.6417666293479</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024606</v>
+        <v>785.54104360246</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782766</v>
+        <v>1223.746040782765</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400856</v>
+        <v>1654.409655400854</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671738</v>
+        <v>2015.885456671736</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110669</v>
+        <v>2286.722307110668</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750807</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.887742750807</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="S2" t="n">
-        <v>2231.04951802587</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="T2" t="n">
-        <v>2011.32741813392</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="U2" t="n">
-        <v>1757.54575964143</v>
+        <v>2159.106084258316</v>
       </c>
       <c r="V2" t="n">
-        <v>1426.48287229786</v>
+        <v>1828.043196914745</v>
       </c>
       <c r="W2" t="n">
-        <v>1073.714217027745</v>
+        <v>1605.983085015606</v>
       </c>
       <c r="X2" t="n">
-        <v>700.2484587666656</v>
+        <v>1232.517326754526</v>
       </c>
       <c r="Y2" t="n">
-        <v>700.2484587666656</v>
+        <v>842.3779947787147</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.7624785076523</v>
+        <v>988.8055048397986</v>
       </c>
       <c r="C3" t="n">
-        <v>676.3094492265253</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>527.3750395652741</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1375845598185</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6030265867035</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="G3" t="n">
         <v>221.6030265867035</v>
@@ -4404,55 +4404,55 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501615</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501615</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="K3" t="n">
-        <v>149.6153884757237</v>
+        <v>282.469600933409</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519661</v>
+        <v>658.8007278096511</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664336</v>
+        <v>1149.940624122021</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987179</v>
+        <v>1669.786545444864</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602203</v>
+        <v>2078.928325059887</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642312</v>
+        <v>2390.297606099995</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750807</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.42208984156</v>
+        <v>2354.422089841557</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634265</v>
+        <v>2193.780311634262</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972566</v>
+        <v>1994.366029972564</v>
       </c>
       <c r="U3" t="n">
-        <v>1923.979079458151</v>
+        <v>1766.187661648771</v>
       </c>
       <c r="V3" t="n">
-        <v>1688.826971226409</v>
+        <v>1658.654660538487</v>
       </c>
       <c r="W3" t="n">
-        <v>1434.589614498207</v>
+        <v>1404.417303810285</v>
       </c>
       <c r="X3" t="n">
-        <v>1226.738114292674</v>
+        <v>1196.565803604753</v>
       </c>
       <c r="Y3" t="n">
-        <v>1018.97781552772</v>
+        <v>988.8055048397986</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="C4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="D4" t="n">
-        <v>631.0407786978457</v>
+        <v>512.1720262247617</v>
       </c>
       <c r="E4" t="n">
-        <v>631.0407786978457</v>
+        <v>364.2589326423686</v>
       </c>
       <c r="F4" t="n">
-        <v>484.1508311999353</v>
+        <v>217.3689851444582</v>
       </c>
       <c r="G4" t="n">
-        <v>400.211384802554</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="H4" t="n">
-        <v>241.4722979881437</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7923822515376</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501615</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294460974</v>
+        <v>91.87143294460961</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384336</v>
+        <v>203.2083598384334</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534276</v>
+        <v>330.9866617534272</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692837</v>
+        <v>461.1612976692832</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984506</v>
+        <v>565.3823477984499</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0407786978457</v>
+        <v>631.0407786978449</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2013.317548404538</v>
+        <v>2091.914583926163</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1364.686368379001</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>978.8981157807568</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>567.9122109911493</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>2478.514423990285</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4671,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.7208876442307</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>678.7208876442307</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>528.604248231895</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>678.7208876442307</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="U7" t="n">
-        <v>678.7208876442307</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="V7" t="n">
-        <v>678.7208876442307</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W7" t="n">
-        <v>678.7208876442307</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X7" t="n">
-        <v>678.7208876442307</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.7208876442307</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
         <v>864.6405432696254</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001584</v>
@@ -5045,13 +5045,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5118,13 +5118,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.5323180934831</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>657.5961351655762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953303</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442067</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5221,7 +5221,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1453.060509258584</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.643339221623</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.180782923723</v>
+        <v>391.8664332433631</v>
       </c>
       <c r="Y13" t="n">
-        <v>1008.180782923723</v>
+        <v>171.073854099833</v>
       </c>
     </row>
     <row r="14">
@@ -5279,22 +5279,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5309,13 +5309,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,28 +5367,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>654.7198286198654</v>
+        <v>895.1493900894818</v>
       </c>
       <c r="C16" t="n">
-        <v>654.7198286198654</v>
+        <v>895.1493900894818</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198654</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
@@ -5437,10 +5437,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.725653781988</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W16" t="n">
-        <v>1285.150423491653</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X16" t="n">
-        <v>1057.160872593635</v>
+        <v>895.1493900894818</v>
       </c>
       <c r="Y16" t="n">
-        <v>836.3682934501052</v>
+        <v>895.1493900894818</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,13 +5498,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>351.3014367967928</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866391</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139994</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196469</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075806</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
         <v>4405.689038432984</v>
@@ -5540,7 +5540,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5549,16 +5549,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5604,13 +5604,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>559.3002584566049</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>390.364075528698</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>390.364075528698</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208119</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838514</v>
+        <v>968.9382741848618</v>
       </c>
       <c r="X19" t="n">
-        <v>481.696890485834</v>
+        <v>740.9487232868446</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786342</v>
+        <v>740.9487232868446</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427773</v>
+        <v>387.7938597516208</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>721.6132334414672</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1172.647446689876</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5777,19 +5777,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5841,7 +5841,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.5554641779661</v>
+        <v>452.5901955154776</v>
       </c>
       <c r="C22" t="n">
-        <v>658.6192812500592</v>
+        <v>452.5901955154776</v>
       </c>
       <c r="D22" t="n">
-        <v>508.5026418377234</v>
+        <v>302.4735561031418</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553302</v>
+        <v>302.4735561031418</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553302</v>
+        <v>155.5836086052315</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
         <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.576850674229</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.892362468343</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.475192431382</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X22" t="n">
-        <v>962.4856415333644</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y22" t="n">
-        <v>827.5554641779661</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.5676213586406</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C25" t="n">
-        <v>392.5676213586406</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.554276517392</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.451409643036</v>
+        <v>1554.177392352799</v>
       </c>
       <c r="V25" t="n">
-        <v>1130.766921437149</v>
+        <v>1299.492904146912</v>
       </c>
       <c r="W25" t="n">
-        <v>841.3497514001881</v>
+        <v>1010.075734109952</v>
       </c>
       <c r="X25" t="n">
-        <v>613.3602005021708</v>
+        <v>782.0861832119344</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.5676213586406</v>
+        <v>561.2936040684043</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,52 +6224,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>351.3014367967928</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866391</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142067</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282341</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.7853125466711</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C28" t="n">
-        <v>494.8491296187642</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D28" t="n">
-        <v>494.8491296187642</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E28" t="n">
-        <v>494.8491296187642</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>494.8491296187642</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,49 +6385,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557402</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1355.643526557402</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="W28" t="n">
-        <v>1066.226356520441</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X28" t="n">
-        <v>1066.226356520441</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y28" t="n">
-        <v>845.4337773769108</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1732.058578925876</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,28 +6540,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>411.1769646560687</v>
+        <v>725.307188281635</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1769646560687</v>
+        <v>556.3710053537282</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560687</v>
+        <v>556.3710053537282</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6628,43 +6628,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.7880996267</v>
+        <v>1667.240599230346</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208129</v>
+        <v>1645.154953190383</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838522</v>
+        <v>1355.737783153422</v>
       </c>
       <c r="X31" t="n">
-        <v>631.9695437995988</v>
+        <v>1127.748232255405</v>
       </c>
       <c r="Y31" t="n">
-        <v>411.1769646560687</v>
+        <v>906.9556531118748</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139993</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969822</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196468</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,19 +6777,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729.2066409118286</v>
+        <v>557.6043516563536</v>
       </c>
       <c r="C34" t="n">
-        <v>560.2704579839216</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D34" t="n">
-        <v>410.1538185715858</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1509.973093725643</v>
+        <v>1075.011072591332</v>
       </c>
       <c r="W34" t="n">
-        <v>1220.555923688682</v>
+        <v>785.593902554371</v>
       </c>
       <c r="X34" t="n">
-        <v>1131.647684885598</v>
+        <v>557.6043516563536</v>
       </c>
       <c r="Y34" t="n">
-        <v>910.8551057420683</v>
+        <v>557.6043516563536</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2112.262965010019</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E35" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571325</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2838383285447</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L35" t="n">
-        <v>1058.318051576954</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.868354406782</v>
+        <v>2044.464146207992</v>
       </c>
       <c r="N35" t="n">
-        <v>3016.620626633429</v>
+        <v>3024.216418434638</v>
       </c>
       <c r="O35" t="n">
-        <v>3519.593097512766</v>
+        <v>3527.188889313975</v>
       </c>
       <c r="P35" t="n">
-        <v>3914.367463869944</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q35" t="n">
-        <v>4162.653825625626</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983637</v>
@@ -6968,16 +6968,16 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y35" t="n">
         <v>2463.00884922965</v>
@@ -7014,25 +7014,25 @@
         <v>84.58533367967276</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N36" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P36" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q36" t="n">
         <v>2583.126759780831</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.2589880867715</v>
+        <v>858.7092067778613</v>
       </c>
       <c r="C37" t="n">
-        <v>449.1767610033554</v>
+        <v>725.626979694445</v>
       </c>
       <c r="D37" t="n">
-        <v>449.1767610033554</v>
+        <v>611.3642961266</v>
       </c>
       <c r="E37" t="n">
-        <v>449.1767610033554</v>
+        <v>499.3051583886977</v>
       </c>
       <c r="F37" t="n">
-        <v>338.1407693499358</v>
+        <v>388.2691667352781</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544881</v>
+        <v>256.4202859544878</v>
       </c>
       <c r="H37" t="n">
         <v>146.0570550168366</v>
@@ -7096,7 +7096,7 @@
         <v>164.8484282497937</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218555</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
         <v>755.6763338935366</v>
@@ -7111,34 +7111,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.683032594801</v>
+        <v>2100.997656232365</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008818</v>
+        <v>1915.084996646382</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978952</v>
+        <v>1661.836085616516</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617556</v>
+        <v>1443.00555325512</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425087</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715598</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.0534970725205</v>
+        <v>1004.50371576361</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>731.6764154529681</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H38" t="n">
         <v>90.72827659571328</v>
@@ -7172,19 +7172,19 @@
         <v>84.58533367967276</v>
       </c>
       <c r="J38" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285447</v>
+        <v>646.413425882713</v>
       </c>
       <c r="L38" t="n">
-        <v>1058.318051576954</v>
+        <v>1510.932241536068</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.868354406782</v>
+        <v>2044.464146207992</v>
       </c>
       <c r="N38" t="n">
-        <v>3016.620626633429</v>
+        <v>3024.216418434638</v>
       </c>
       <c r="O38" t="n">
         <v>3527.188889313975</v>
@@ -7205,10 +7205,10 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
         <v>3154.90602777756</v>
@@ -7251,28 +7251,28 @@
         <v>84.58533367967276</v>
       </c>
       <c r="J39" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K39" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N39" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O39" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R39" t="n">
         <v>2582.982406373346</v>
@@ -7321,7 +7321,7 @@
         <v>388.2691667352784</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4202859544881</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H40" t="n">
         <v>146.0570550168366</v>
@@ -7333,10 +7333,10 @@
         <v>164.8484282497937</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7351,22 +7351,22 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2070.659533992782</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="T40" t="n">
-        <v>1884.746874406799</v>
+        <v>1986.6023013375</v>
       </c>
       <c r="U40" t="n">
-        <v>1631.497963376933</v>
+        <v>1733.353390307634</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.667431015537</v>
+        <v>1514.522857946238</v>
       </c>
       <c r="W40" t="n">
         <v>1381.577934116176</v>
@@ -7375,7 +7375,7 @@
         <v>1189.44233906265</v>
       </c>
       <c r="Y40" t="n">
-        <v>1004.503715763611</v>
+        <v>1004.50371576361</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>84.58533367967276</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285447</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L41" t="n">
-        <v>1471.802653981899</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M41" t="n">
-        <v>2450.352956811728</v>
+        <v>1602.412711083621</v>
       </c>
       <c r="N41" t="n">
-        <v>2997.13177387051</v>
+        <v>2582.164983310267</v>
       </c>
       <c r="O41" t="n">
-        <v>3500.104244749847</v>
+        <v>3462.129633639722</v>
       </c>
       <c r="P41" t="n">
-        <v>3894.878611107025</v>
+        <v>3856.9039999969</v>
       </c>
       <c r="Q41" t="n">
-        <v>4143.164972862708</v>
+        <v>4105.190361752582</v>
       </c>
       <c r="R41" t="n">
         <v>4229.266683983637</v>
@@ -7442,10 +7442,10 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W41" t="n">
         <v>3154.90602777756</v>
@@ -7488,22 +7488,22 @@
         <v>84.58533367967276</v>
       </c>
       <c r="J42" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P42" t="n">
         <v>2425.485202134231</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.258988086771</v>
+        <v>797.2374854406975</v>
       </c>
       <c r="C43" t="n">
-        <v>582.258988086771</v>
+        <v>664.1552583572815</v>
       </c>
       <c r="D43" t="n">
-        <v>467.996304518926</v>
+        <v>549.8925747894366</v>
       </c>
       <c r="E43" t="n">
-        <v>467.996304518926</v>
+        <v>437.8334370515341</v>
       </c>
       <c r="F43" t="n">
-        <v>356.9603128655064</v>
+        <v>326.7974453981145</v>
       </c>
       <c r="G43" t="n">
-        <v>225.1114320847161</v>
+        <v>194.9485646173242</v>
       </c>
       <c r="H43" t="n">
-        <v>114.7482011470647</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967276</v>
@@ -7594,25 +7594,25 @@
         <v>2172.514960923484</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.683032594801</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008817</v>
+        <v>2045.748870362744</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978952</v>
+        <v>1792.499959332878</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617556</v>
+        <v>1573.669426971482</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425086</v>
+        <v>1320.106212779012</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715594</v>
+        <v>1127.970617725486</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725199</v>
+        <v>943.0319944264464</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D44" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F44" t="n">
         <v>731.6764154529689</v>
@@ -7640,28 +7640,28 @@
         <v>352.4579211424561</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571323</v>
+        <v>90.72827659571325</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285447</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.318051576954</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M44" t="n">
-        <v>1591.849956248878</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N44" t="n">
-        <v>2571.602228475525</v>
+        <v>2583.647171465564</v>
       </c>
       <c r="O44" t="n">
-        <v>3143.548912549954</v>
+        <v>3462.129633639722</v>
       </c>
       <c r="P44" t="n">
         <v>3856.9039999969</v>
@@ -7682,16 +7682,16 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285972</v>
       </c>
       <c r="C45" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474703</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862191</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807635</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076486</v>
       </c>
       <c r="G45" t="n">
         <v>194.0945196402673</v>
@@ -7728,13 +7728,13 @@
         <v>178.2626031702901</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633023</v>
       </c>
       <c r="M45" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N45" t="n">
         <v>1704.024331240073</v>
@@ -7743,34 +7743,34 @@
         <v>2114.985610658128</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R45" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T45" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V45" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X45" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y45" t="n">
-        <v>1127.832408748666</v>
+        <v>1127.832408748665</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2589880867719</v>
+        <v>582.2589880867711</v>
       </c>
       <c r="C46" t="n">
-        <v>582.2589880867719</v>
+        <v>449.176761003355</v>
       </c>
       <c r="D46" t="n">
-        <v>500.3283044731806</v>
+        <v>334.91407743551</v>
       </c>
       <c r="E46" t="n">
-        <v>388.2691667352782</v>
+        <v>222.8549396976077</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352782</v>
+        <v>111.8189480441882</v>
       </c>
       <c r="G46" t="n">
-        <v>256.420285954488</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168366</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I46" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L46" t="n">
         <v>755.676333893537</v>
       </c>
       <c r="M46" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O46" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045766</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321466</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923485</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.683032594802</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008819</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978953</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V46" t="n">
         <v>1358.690929617556</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.127715425087</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715601</v>
+        <v>912.9921203715594</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.0534970725207</v>
+        <v>728.05349707252</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733644</v>
+        <v>62.50551572733653</v>
       </c>
       <c r="K3" t="n">
-        <v>130.2690628128963</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>75.88111353616654</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,16 +8693,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>104.3976710547485</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476832</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704337</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>39.52483591330156</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>7.672516970917826</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>39.5248359133015</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>7.672516970918309</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>4.592992652874273e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,16 +11063,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>10.66944932802369</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>27.35822683245138</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>69.67092241928538</v>
+        <v>379.303021509921</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143242</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>71.801724654116</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>56.01125518622335</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>249.3235203491592</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983816</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.9321526700474</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>66.8902891415581</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.14213605696696</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>106.6034598437595</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.00377777025054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3466769161734</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>77.83645052267005</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.0172536104692</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>11.83802936452102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>230.272853744264</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>148.7699267806263</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>75.14838655881431</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>137.6904989739839</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>49.62711341148919</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>83.47147740118899</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400148</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>220.2489801201779</v>
+        <v>119.4121074587835</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>131.751404812582</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>30.99576533107423</v>
+        <v>60.85700412379224</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>58.5551033349914</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125819</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>32.00867995471112</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>103.569113752112</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379224</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921202.9459189279</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189279</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935402.9934318265</v>
+        <v>935402.9934318266</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935402.9934318265</v>
+        <v>935402.9934318266</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>513151.1061651775</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="F2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="G2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
@@ -26338,22 +26338,22 @@
         <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087291</v>
       </c>
       <c r="M2" t="n">
+        <v>509045.8204176141</v>
+      </c>
+      <c r="N2" t="n">
+        <v>509045.8204176141</v>
+      </c>
+      <c r="O2" t="n">
         <v>509045.8204176142</v>
       </c>
-      <c r="N2" t="n">
-        <v>509045.8204176143</v>
-      </c>
-      <c r="O2" t="n">
-        <v>509045.8204176144</v>
-      </c>
       <c r="P2" t="n">
-        <v>509045.8204176144</v>
+        <v>509045.8204176138</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394252</v>
+        <v>507203.1428394247</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418192</v>
+        <v>78665.28217418243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,19 +26378,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410731</v>
+        <v>157829.4001410728</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022202</v>
+        <v>18289.94367022214</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547202</v>
+        <v>232017.7717547204</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.8393528957</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289569</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
+        <v>55718.30868501863</v>
+      </c>
+      <c r="N4" t="n">
+        <v>55718.30868501864</v>
+      </c>
+      <c r="O4" t="n">
         <v>55718.30868501861</v>
       </c>
-      <c r="N4" t="n">
-        <v>55718.30868501861</v>
-      </c>
-      <c r="O4" t="n">
-        <v>55718.30868501858</v>
-      </c>
       <c r="P4" t="n">
-        <v>55718.30868501864</v>
+        <v>55718.30868501866</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133422</v>
+        <v>77204.68871133418</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>91026.04982123678</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-303274.4971403022</v>
+        <v>-303274.4971403018</v>
       </c>
       <c r="C6" t="n">
-        <v>141704.3304645524</v>
+        <v>141704.3304645518</v>
       </c>
       <c r="D6" t="n">
         <v>220369.612638734</v>
       </c>
       <c r="E6" t="n">
-        <v>-355970.5379912872</v>
+        <v>-356037.733481513</v>
       </c>
       <c r="F6" t="n">
-        <v>371406.8760021196</v>
+        <v>371339.6805118938</v>
       </c>
       <c r="G6" t="n">
-        <v>371406.8760021195</v>
+        <v>371339.6805118935</v>
       </c>
       <c r="H6" t="n">
-        <v>371406.876002119</v>
+        <v>371339.6805118938</v>
       </c>
       <c r="I6" t="n">
-        <v>371406.8760021197</v>
+        <v>371339.6805118935</v>
       </c>
       <c r="J6" t="n">
-        <v>213577.4758610464</v>
+        <v>213510.2803708209</v>
       </c>
       <c r="K6" t="n">
-        <v>353116.9323318976</v>
+        <v>353049.7368416715</v>
       </c>
       <c r="L6" t="n">
-        <v>371406.8760021195</v>
+        <v>371339.6805118939</v>
       </c>
       <c r="M6" t="n">
-        <v>238452.6707231838</v>
+        <v>238436.2495801934</v>
       </c>
       <c r="N6" t="n">
-        <v>362301.4619113589</v>
+        <v>362285.0407683684</v>
       </c>
       <c r="O6" t="n">
-        <v>362301.4619113591</v>
+        <v>362285.0407683685</v>
       </c>
       <c r="P6" t="n">
-        <v>362301.461911359</v>
+        <v>362285.0407683682</v>
       </c>
     </row>
   </sheetData>
@@ -26719,10 +26719,10 @@
         <v>35.49541628604585</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="P2" t="n">
         <v>35.49541628604588</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688968</v>
+        <v>316.5685789688964</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877018</v>
+        <v>603.2219356877014</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688968</v>
+        <v>316.5685789688964</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818993</v>
+        <v>61.17508524819033</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877018</v>
+        <v>603.2219356877014</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685377</v>
+        <v>71.06533706685423</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877018</v>
+        <v>603.2219356877014</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685377</v>
+        <v>71.06533706685423</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877018</v>
+        <v>603.2219356877014</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685377</v>
+        <v>71.06533706685423</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>95.39128227261148</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208646</v>
+        <v>161.4125322208647</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866741</v>
+        <v>69.92680236866752</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776876</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>129.4014579372659</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6625960688247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>156.2135036312843</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>126.3429160502441</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>30.93540806986</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>84.32006605314017</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.2831165792401</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255628</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739097</v>
+        <v>38.36018782739104</v>
       </c>
       <c r="R4" t="n">
         <v>151.6253882365111</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>58.61978731734587</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>380.8087221509364</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>176.1210898615026</v>
+        <v>184.0025971230541</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>28.44342906498827</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>78.46362273233837</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>120.168123766492</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>125.133230616595</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28263,13 +28263,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.395083605863853e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.913225216616411e-13</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604547</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604538</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604586</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392549</v>
+        <v>1.272637503392547</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161894</v>
+        <v>13.03339883161893</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954128</v>
+        <v>49.06335734954123</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035634</v>
+        <v>108.0135173035633</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221701</v>
+        <v>161.8842628221699</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166198</v>
+        <v>200.8317428166196</v>
       </c>
       <c r="M2" t="n">
-        <v>223.464010017577</v>
+        <v>223.4640100175768</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240911</v>
+        <v>227.0798913240909</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497315</v>
+        <v>214.4251021497312</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847279</v>
+        <v>183.0068637847277</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944822</v>
+        <v>137.430533194482</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248227</v>
+        <v>79.94231557248216</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855773</v>
+        <v>29.0002271085577</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100885</v>
+        <v>5.570970671100878</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714039</v>
+        <v>0.1018110002714038</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859288</v>
+        <v>0.6809210943859281</v>
       </c>
       <c r="H3" t="n">
-        <v>6.57626425367463</v>
+        <v>6.576264253674622</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986641</v>
+        <v>23.44399381986639</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933025</v>
+        <v>64.33211093933016</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631875</v>
+        <v>109.9538242631873</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665588</v>
+        <v>147.8464858665587</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380487</v>
+        <v>172.5298755380485</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648737</v>
+        <v>177.0962279648735</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313749</v>
+        <v>162.0084500313747</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674323</v>
+        <v>130.0260640674322</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915823</v>
+        <v>86.91898039915812</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248777</v>
+        <v>42.27683777248772</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861582</v>
+        <v>12.6478106786158</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739774</v>
+        <v>2.74458984973977</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012692</v>
+        <v>0.04479744042012686</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111252</v>
+        <v>0.5708613719111245</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173462</v>
+        <v>5.075476561173456</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801821</v>
+        <v>17.16735834801819</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411656</v>
+        <v>40.3598989941165</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840163</v>
+        <v>66.32371211840155</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667767</v>
+        <v>84.87151705667756</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148664</v>
+        <v>89.48511487148653</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890889</v>
+        <v>87.35735884890877</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952198</v>
+        <v>80.6886600952197</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823279</v>
+        <v>69.04308810823271</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430341</v>
+        <v>47.80185542430335</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065841</v>
+        <v>25.66800314065837</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760243</v>
+        <v>9.948556817760231</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711171</v>
+        <v>2.439134952711168</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333414</v>
+        <v>0.0311378930133341</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895091</v>
+        <v>96.06422794895079</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483543</v>
+        <v>265.939824348354</v>
       </c>
       <c r="L2" t="n">
-        <v>382.726542397083</v>
+        <v>382.7265423970828</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831368</v>
+        <v>442.6313102831365</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394844</v>
+        <v>435.0137521394841</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907901</v>
+        <v>365.1270719907898</v>
       </c>
       <c r="P2" t="n">
-        <v>273.572576200941</v>
+        <v>273.5725762009408</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799374</v>
+        <v>127.4398339799372</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>102.3814481017248</v>
+        <v>236.577622301407</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901438</v>
+        <v>380.1324513901436</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660303</v>
+        <v>496.1009053660301</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250939</v>
+        <v>525.0968902250937</v>
       </c>
       <c r="O3" t="n">
-        <v>413.27452486366</v>
+        <v>413.2745248636598</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930393</v>
+        <v>314.5144252930391</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489858</v>
+        <v>22.81831984930314</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251878</v>
+        <v>44.05422029251869</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169938</v>
+        <v>112.4615423169937</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333272</v>
+        <v>129.0689918333271</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281375</v>
+        <v>131.4895312281374</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092595</v>
+        <v>105.2737880092594</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312628</v>
+        <v>66.3216473731262</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306652</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35647,7 +35647,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35665,7 +35665,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>258.3236387357559</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407864</v>
+        <v>295.184672023461</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400155</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36279,25 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357559</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>631.8075074371754</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>578.4459517435281</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>67.28571551314261</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911208</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37470,7 +37470,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
         <v>380.3523624535859</v>
@@ -37479,7 +37479,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
         <v>113.8896548239395</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>376.7161224687019</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>515.7255178591374</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911208</v>
+        <v>81.07383289911206</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
@@ -37707,7 +37707,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
         <v>380.3523624535859</v>
@@ -37716,7 +37716,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
         <v>113.8896548239395</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>549.5905651582502</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>86.97142537467616</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911208</v>
+        <v>81.07383289911206</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303654</v>
@@ -37944,7 +37944,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
         <v>380.3523624535859</v>
@@ -37953,7 +37953,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
         <v>113.8896548239395</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>577.7239233075045</v>
+        <v>887.35602239814</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911211</v>
+        <v>81.07383289911208</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
         <v>383.1287956795297</v>
       </c>
       <c r="N46" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311563</v>
